--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3546101.960858727</v>
+        <v>3543725.333911361</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.95245435214181</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>16.82188601375634</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.30830983498225</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>66.4005512133149</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>113.7237131066898</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>138.4227759882139</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959189</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>144.8586974472232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>211.4496987473626</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>46.93693955568823</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.28371368070787</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>115.5971804138453</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505419</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242269</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289883</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532352</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730836</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.329830759459</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E2" t="n">
         <v>844.329830759459</v>
@@ -4325,19 +4325,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2545.347524345856</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2291.766463610035</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1960.703576266465</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1607.934920996351</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1234.469162735271</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>844.329830759459</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508772</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229704</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106346</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282415</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>108.1238672093993</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1569.374856222664</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.385305324647</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>1120.592726181117</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2172.199996424345</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>1803.237479483933</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>1444.971780877182</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>1059.183528278938</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>648.1976234893307</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>232.4928732136195</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400156</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400156</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>2172.199996424345</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.031492328577</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1739.316620925522</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2071.387056101684</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2318.569789933981</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>444.7476822882293</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>861.3216348137591</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="C8" t="n">
-        <v>861.3216348137591</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>503.0559362070086</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>117.2676836087644</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>110.3221828595609</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>98.65783662425386</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>98.65783662425386</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320765</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.926725050651</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.460966789571</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137591</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
@@ -4896,13 +4896,13 @@
         <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>706.8033708781531</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>537.8671879502463</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>387.7505485379105</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>239.8374549555174</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>92.94750745760703</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>92.94750745760703</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4990,22 +4990,22 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.23396574994</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.23396574994</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1337.23396574994</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>1109.244414851923</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>888.4518357083929</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,58 +5264,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792909</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5762,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6236,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6309,19 +6309,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921476</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7427,34 +7427,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8061,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>162.0073097921332</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282438</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>129.7511347056851</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="P9" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440089</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>13.30196929556016</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903367</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125717</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672605.3283593905</v>
+        <v>672605.3283593906</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244629</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.36846171972</v>
+        <v>7507.368461719619</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719689</v>
+        <v>7507.36846171965</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719649</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719679</v>
+        <v>7507.36846171965</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719646</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
+        <v>7507.36846171969</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719672</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.368461719731</v>
+      </c>
+      <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="L4" t="n">
-        <v>7507.368461719649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719649</v>
-      </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719732</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-581339.7824380462</v>
       </c>
       <c r="C6" t="n">
-        <v>533412.0011378732</v>
+        <v>533412.0011378739</v>
       </c>
       <c r="D6" t="n">
-        <v>533412.0011378735</v>
+        <v>533412.0011378734</v>
       </c>
       <c r="E6" t="n">
-        <v>130495.2648030828</v>
+        <v>130460.526877647</v>
       </c>
       <c r="F6" t="n">
-        <v>637980.7064276286</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="G6" t="n">
-        <v>637980.7064276285</v>
+        <v>637945.968502193</v>
       </c>
       <c r="H6" t="n">
-        <v>637980.7064276285</v>
+        <v>637945.9685021932</v>
       </c>
       <c r="I6" t="n">
-        <v>637980.7064276285</v>
+        <v>637945.968502193</v>
       </c>
       <c r="J6" t="n">
-        <v>470375.5286176458</v>
+        <v>470340.7906922104</v>
       </c>
       <c r="K6" t="n">
-        <v>637980.7064276285</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="L6" t="n">
-        <v>637980.7064276289</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="M6" t="n">
-        <v>505373.412698702</v>
+        <v>505338.674773266</v>
       </c>
       <c r="N6" t="n">
-        <v>637980.7064276289</v>
+        <v>637945.9685021928</v>
       </c>
       <c r="O6" t="n">
-        <v>637980.7064276286</v>
+        <v>637945.9685021926</v>
       </c>
       <c r="P6" t="n">
-        <v>637980.7064276286</v>
+        <v>637945.9685021928</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,16 +26817,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.97791572012</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>189.8362989664774</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>90.94319932014659</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>220.1224471232761</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>187.2948394557156</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>231.3083246902551</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697728</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>80.85095794181399</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>153.823193023645</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>18.77297311678226</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>105.967795474421</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28062,19 +28062,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>170.9258179227457</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-8.424525727746915e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.424525727746915e-14</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.255575077084</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860359</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>472.97362791687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245826</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>553.2044093850072</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>246.2318570365397</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35264,16 +35264,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P9" t="n">
-        <v>418.4229873015965</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717057</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>330.3773834724256</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315785</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.3390294385611</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
